--- a/Jogos_do_Dia/2023-10-17_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-17_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -682,61 +682,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="Z2" t="n">
         <v>1</v>
@@ -754,43 +754,43 @@
         <v>2.61</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>2.37</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="3">
@@ -821,61 +821,61 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.6</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="Z3" t="n">
         <v>1.4</v>
@@ -893,43 +893,43 @@
         <v>2.23</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AP3" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="4">
@@ -960,61 +960,61 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="Z4" t="n">
         <v>1.83</v>
@@ -1032,43 +1032,43 @@
         <v>2.58</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AP4" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="5">
@@ -1099,22 +1099,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
